--- a/app_lib/london_underground.xlsx
+++ b/app_lib/london_underground.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPrince\Documents\python-git-class\london_underground\app_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F25C6EA-6719-4DDE-B401-317736C69C9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DDFEB2-DF8E-4B58-80BA-E7F135626B1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,10 +941,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -990,10 +990,10 @@
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1008,7 +1008,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,16 +1019,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Comma 2" xfId="3"/>
-    <cellStyle name="Comma 2 2" xfId="4"/>
-    <cellStyle name="Comma 3" xfId="5"/>
-    <cellStyle name="Comma 4" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 2" xfId="9"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1339,12 +1339,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
